--- a/gongcha T5/File-order-hàng.xlsx
+++ b/gongcha T5/File-order-hàng.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\gongcha T5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\upload\gongcha T5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tuần 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tuần 1'!$A$1:$F$100</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Coffee</t>
+  </si>
+  <si>
+    <t>Black Sticky Rice</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -550,6 +553,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,7 +603,79 @@
     <cellStyle name="一般 2" xfId="3"/>
     <cellStyle name="一般 3 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -715,6 +799,55 @@
         <a:xfrm>
           <a:off x="322435" y="161926"/>
           <a:ext cx="742949" cy="962024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322435</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>389109</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322435" y="161926"/>
+          <a:ext cx="657224" cy="962024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1015,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -1058,14 +1191,14 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="22.5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
@@ -1084,37 +1217,37 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="37">
+      <c r="A8" s="40">
         <v>43560</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1128,22 +1261,22 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="54" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
@@ -1687,10 +1820,10 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="45" customHeight="1">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="15">
         <f>SUM(C14:C58)</f>
         <v>27</v>
@@ -1699,22 +1832,22 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="36" customHeight="1">
-      <c r="A60" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="32" t="s">
+      <c r="A60" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="37" t="s">
         <v>1</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="31"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="38"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
@@ -2060,8 +2193,8 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="36" customHeight="1">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="19"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2132,32 +2265,32 @@
     <mergeCell ref="B12:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C14:C43 C45:C56 C58">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C92">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2169,13 +2302,1170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="51.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5">
+      <c r="A4" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="40">
+        <v>43743</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="54" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A14" s="28">
+        <v>1</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A15" s="28">
+        <v>2</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A16" s="28">
+        <v>3</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A17" s="28">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A18" s="28">
+        <v>5</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A19" s="28">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A20" s="28">
+        <v>7</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A21" s="28">
+        <v>8</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A22" s="28">
+        <v>9</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A23" s="28">
+        <v>10</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A24" s="28">
+        <v>11</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A25" s="28">
+        <v>12</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A26" s="28">
+        <v>13</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A27" s="28">
+        <v>14</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A28" s="28">
+        <v>15</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A29" s="28">
+        <v>16</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A30" s="28">
+        <v>17</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A31" s="28">
+        <v>18</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A32" s="28">
+        <v>19</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A33" s="28">
+        <v>20</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A34" s="28">
+        <v>21</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A35" s="28">
+        <v>22</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A36" s="28">
+        <v>23</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="21">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A37" s="28">
+        <v>24</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A38" s="28">
+        <v>25</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A39" s="28">
+        <v>26</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A40" s="28">
+        <v>27</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A41" s="28">
+        <v>28</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="24">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A42" s="28">
+        <v>29</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A43" s="28">
+        <v>30</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A44" s="28">
+        <v>31</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A45" s="28">
+        <v>32</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A46" s="28">
+        <v>33</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A47" s="28">
+        <v>34</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A48" s="28">
+        <v>35</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A49" s="28">
+        <v>36</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A50" s="28">
+        <v>37</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A51" s="28">
+        <v>38</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A52" s="28">
+        <v>39</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="24">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A53" s="28">
+        <v>40</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A54" s="28">
+        <v>41</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A55" s="28">
+        <v>42</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A56" s="28">
+        <v>43</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A57" s="28">
+        <v>44</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A58" s="28">
+        <v>45</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A59" s="30">
+        <v>46</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="24">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="45" customHeight="1">
+      <c r="A60" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="41"/>
+      <c r="C60" s="15">
+        <f>SUM(C14:C59)</f>
+        <v>19</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="36" customHeight="1">
+      <c r="A61" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="34"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="38"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="36" customHeight="1">
+      <c r="A63" s="28">
+        <v>1</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="36" customHeight="1">
+      <c r="A64" s="28">
+        <v>2</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="36" customHeight="1">
+      <c r="A65" s="28">
+        <v>3</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="36" customHeight="1">
+      <c r="A66" s="28">
+        <v>4</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="36" customHeight="1">
+      <c r="A67" s="28">
+        <v>5</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="36" customHeight="1">
+      <c r="A68" s="28">
+        <v>6</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="36" customHeight="1">
+      <c r="A69" s="28">
+        <v>7</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="36" customHeight="1">
+      <c r="A70" s="28">
+        <v>8</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="36" customHeight="1">
+      <c r="A71" s="28">
+        <v>9</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="36" customHeight="1">
+      <c r="A72" s="28">
+        <v>10</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="36" customHeight="1">
+      <c r="A73" s="28">
+        <v>11</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="36" customHeight="1">
+      <c r="A74" s="28">
+        <v>12</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="36" customHeight="1">
+      <c r="A75" s="28">
+        <v>13</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="36" customHeight="1">
+      <c r="A76" s="28">
+        <v>14</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="36" customHeight="1">
+      <c r="A77" s="28">
+        <v>15</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" ht="36" customHeight="1">
+      <c r="A78" s="28">
+        <v>16</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="36" customHeight="1">
+      <c r="A79" s="28">
+        <v>17</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" ht="36" customHeight="1">
+      <c r="A80" s="28">
+        <v>18</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" ht="36" customHeight="1">
+      <c r="A81" s="28">
+        <v>19</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="36" customHeight="1">
+      <c r="A82" s="28">
+        <v>20</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" ht="36" customHeight="1">
+      <c r="A83" s="28">
+        <v>21</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="36" customHeight="1">
+      <c r="A84" s="28">
+        <v>22</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="36" customHeight="1">
+      <c r="A85" s="28">
+        <v>23</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="36" customHeight="1">
+      <c r="A86" s="28">
+        <v>24</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" ht="36" customHeight="1">
+      <c r="A87" s="28">
+        <v>25</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" ht="36" customHeight="1">
+      <c r="A88" s="28">
+        <v>26</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" ht="36" customHeight="1">
+      <c r="A89" s="28">
+        <v>27</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" ht="36" customHeight="1">
+      <c r="A90" s="28">
+        <v>28</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" ht="36" customHeight="1">
+      <c r="A91" s="28">
+        <v>29</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" ht="36" customHeight="1">
+      <c r="A92" s="28">
+        <v>30</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" ht="36" customHeight="1">
+      <c r="A93" s="28">
+        <v>31</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" ht="36" customHeight="1">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="19"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="29"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="11"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A94:B94"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C14:C43 C45:C56 C58:C59">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:C93">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/gongcha T5/File-order-hàng.xlsx
+++ b/gongcha T5/File-order-hàng.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tuần 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Tuần 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tuần 1'!$A$1:$F$100</definedName>
@@ -290,7 +289,7 @@
     <t>Coffee</t>
   </si>
   <si>
-    <t>Black Sticky Rice</t>
+    <t>Trà Thiết Quan Âm</t>
   </si>
 </sst>
 </file>
@@ -2304,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -2384,7 +2383,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="40">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -2769,7 +2768,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1"/>
     </row>
@@ -2979,7 +2978,7 @@
     </row>
     <row r="59" spans="1:6" ht="30.75" customHeight="1">
       <c r="A59" s="30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>86</v>
@@ -2996,7 +2995,7 @@
       <c r="B60" s="41"/>
       <c r="C60" s="15">
         <f>SUM(C14:C59)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3420,6 +3419,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -3428,11 +3432,6 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A94:B94"/>
   </mergeCells>
   <conditionalFormatting sqref="C14:C43 C45:C56 C58:C59">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
@@ -3467,16 +3466,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>